--- a/me-docs/10.Xay-dung-chuc-nang-phan-trang.xlsx
+++ b/me-docs/10.Xay-dung-chuc-nang-phan-trang.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F47209-2568-4D8C-ADE5-641A9C825124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4EB138-D44E-46E9-857A-7AE1A00598C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="split pagination" sheetId="1" r:id="rId1"/>
+    <sheet name="paginate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>views\admin\templates\pagination.blade.php</t>
   </si>
@@ -34,6 +35,15 @@
   </si>
   <si>
     <t>Access url to check</t>
+  </si>
+  <si>
+    <t>Controllers\SliderController.php</t>
+  </si>
+  <si>
+    <t>Models\SliderModel.php</t>
+  </si>
+  <si>
+    <t>Access browser to check</t>
   </si>
 </sst>
 </file>
@@ -225,6 +235,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>208305</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>94619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C29B48-CDBA-4D46-A9FD-87DEA51149A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9961905" cy="5047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>175159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC2CE8D-C9AB-40E1-ADCC-016706899BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="5905500"/>
+          <a:ext cx="10877550" cy="4175659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECA7141-0E2D-40E0-9D70-82F37CA89162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10477501"/>
+          <a:ext cx="11391901" cy="5695950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -490,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,4 +662,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C5AB78-7C03-434E-B31A-C6A98B4DD9CF}">
+  <dimension ref="A2:A55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/10.Xay-dung-chuc-nang-phan-trang.xlsx
+++ b/me-docs/10.Xay-dung-chuc-nang-phan-trang.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4EB138-D44E-46E9-857A-7AE1A00598C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B93185-B34E-4CCF-9409-8AE72C26DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="split pagination" sheetId="1" r:id="rId1"/>
     <sheet name="paginate" sheetId="2" r:id="rId2"/>
+    <sheet name="custom view" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>views\admin\templates\pagination.blade.php</t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>Access browser to check</t>
+  </si>
+  <si>
+    <t>views\pagination\pagination_backend.blade.php</t>
   </si>
 </sst>
 </file>
@@ -361,6 +365,143 @@
         <a:xfrm>
           <a:off x="609600" y="10477501"/>
           <a:ext cx="11391901" cy="5695950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>303314</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>75357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7CA25A-7542-4A55-8D6D-070BBF30CB6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11885714" cy="6742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>227124</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF44D85-76E7-436F-B9E9-3E0ECF26B367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7620000"/>
+          <a:ext cx="11809524" cy="3885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>519708</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2BF730-3654-41DF-935D-3C535EAF0F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12001500"/>
+          <a:ext cx="11492508" cy="5572125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C5AB78-7C03-434E-B31A-C6A98B4DD9CF}">
   <dimension ref="A2:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -693,4 +834,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3B040D-0C5D-4B03-865B-1589D050510E}">
+  <dimension ref="A2:A63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/10.Xay-dung-chuc-nang-phan-trang.xlsx
+++ b/me-docs/10.Xay-dung-chuc-nang-phan-trang.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B93185-B34E-4CCF-9409-8AE72C26DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9CD872-F60E-41D9-829F-D0B6A3E05BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="split pagination" sheetId="1" r:id="rId1"/>
     <sheet name="paginate" sheetId="2" r:id="rId2"/>
     <sheet name="custom view" sheetId="3" r:id="rId3"/>
+    <sheet name="fix pagination" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>views\admin\templates\pagination.blade.php</t>
   </si>
@@ -48,6 +49,12 @@
   </si>
   <si>
     <t>views\pagination\pagination_backend.blade.php</t>
+  </si>
+  <si>
+    <t>Add test data</t>
+  </si>
+  <si>
+    <t>config\zvn.php</t>
   </si>
 </sst>
 </file>
@@ -502,6 +509,187 @@
         <a:xfrm>
           <a:off x="609600" y="12001500"/>
           <a:ext cx="11492508" cy="5572125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B0C228-6996-44CA-8B72-147F1D08C9DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="13009524" cy="4152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FF28C7-937E-4DE4-808B-52B41345E124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4953000"/>
+          <a:ext cx="11277600" cy="5074024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>303314</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>94405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEDC7A7-FE7E-4738-BCF1-DEB8CF7B48D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10477500"/>
+          <a:ext cx="11885714" cy="6761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>499559</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D880AE56-C09A-4E8D-B99B-FC4D81F964D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17716500"/>
+          <a:ext cx="11472359" cy="5753100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3B040D-0C5D-4B03-865B-1589D050510E}">
   <dimension ref="A2:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -865,4 +1053,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80285F2-C1E0-4153-85FF-46D8911D8338}">
+  <dimension ref="A2:A93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>